--- a/P2/data/rendimiento.xlsx
+++ b/P2/data/rendimiento.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>classclassic</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Turno</t>
+  </si>
+  <si>
+    <t>Segundos</t>
   </si>
 </sst>
 </file>
@@ -158,6 +161,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Fantasmas comidos según la</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> distancia avanzada por el Agente</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -172,7 +205,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -192,7 +225,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -209,8 +242,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2112,7 +2147,7 @@
                   <c:v>625.0</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>656.0</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,7 +4039,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4021,8 +4056,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5924,7 +5961,7 @@
                   <c:v>625.0</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>656.0</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7816,7 +7853,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7833,8 +7870,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9736,7 +9775,7 @@
                   <c:v>625.0</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>656.0</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11628,7 +11667,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11645,6 +11684,7 @@
         <c:axId val="-2095900112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11662,6 +11702,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11683,7 +11724,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11707,6 +11748,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11724,6 +11766,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11745,7 +11788,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11790,7 +11833,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11806,6 +11849,446 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Tiempo medio de respuesta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> del agente (en segundos)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Segundos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00153847842190458"/>
+                  <c:y val="-0.125374589098693"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.82866470960445E-5"/>
+                  <c:y val="-0.431981117651556"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00134544157590057"/>
+                  <c:y val="-0.114609165965905"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$42:$W$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Práctica 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Práctica 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teclado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$43:$W$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00227041549682616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0827796042911672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000618845224380375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2052631584"/>
+        <c:axId val="-2095200368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2052631584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2095200368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2095200368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052631584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11880,6 +12363,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -12399,6 +12888,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12426,6 +13417,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12709,10 +13730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R631"/>
+  <dimension ref="B1:W631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R12" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13806,7 +14827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>29</v>
       </c>
@@ -13838,7 +14859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>30</v>
       </c>
@@ -13870,7 +14891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>31</v>
       </c>
@@ -13902,7 +14923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>32</v>
       </c>
@@ -13934,7 +14955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>33</v>
       </c>
@@ -13966,7 +14987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>34</v>
       </c>
@@ -13998,7 +15019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>35</v>
       </c>
@@ -14030,7 +15051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>36</v>
       </c>
@@ -14062,7 +15083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>37</v>
       </c>
@@ -14094,7 +15115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>38</v>
       </c>
@@ -14125,8 +15146,17 @@
       <c r="R42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>39</v>
       </c>
@@ -14157,8 +15187,23 @@
       <c r="R43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <f>D631</f>
+        <v>2.2704154968261614E-3</v>
+      </c>
+      <c r="V43">
+        <f>H195</f>
+        <v>8.277960429116718E-2</v>
+      </c>
+      <c r="W43">
+        <f>L22</f>
+        <v>6.1884522438037499E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>40</v>
       </c>
@@ -14190,7 +15235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>41</v>
       </c>
@@ -14222,7 +15267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>42</v>
       </c>
@@ -14254,7 +15299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>43</v>
       </c>
@@ -14286,7 +15331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>44</v>
       </c>
@@ -28992,7 +30037,7 @@
     </row>
     <row r="630" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O630">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="P630">
         <v>4</v>

--- a/P2/data/rendimiento.xlsx
+++ b/P2/data/rendimiento.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="classclassic" localSheetId="0">Sheet1!$B$5:$D$629</definedName>
@@ -46,7 +47,7 @@
     </textPr>
   </connection>
   <connection id="2" name="classclassic2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/riesgo/GitHub/ml/P2/data/classclassic2.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/riesgo/GitHub/ml/P2/data/classclassic2.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -60,7 +61,7 @@
     </textPr>
   </connection>
   <connection id="4" name="clustclassic2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/riesgo/GitHub/ml/P2/data/clustclassic2.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/riesgo/GitHub/ml/P2/data/clustclassic2.csv" comma="1">
       <textFields count="3">
         <textField type="skip"/>
         <textField/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>classclassic</t>
   </si>
@@ -111,6 +112,60 @@
   <si>
     <t>Segundos</t>
   </si>
+  <si>
+    <t>P1/blank</t>
+  </si>
+  <si>
+    <t>P2/blank</t>
+  </si>
+  <si>
+    <t>kb/blank</t>
+  </si>
+  <si>
+    <t>P1/classic</t>
+  </si>
+  <si>
+    <t>P2/classic</t>
+  </si>
+  <si>
+    <t>kb/classic</t>
+  </si>
+  <si>
+    <t>P1/sixHunt</t>
+  </si>
+  <si>
+    <t>P2/sixHunt</t>
+  </si>
+  <si>
+    <t>kb/sixHunt</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>Fantasmas comidos</t>
+  </si>
+  <si>
+    <t>sixHunt</t>
+  </si>
+  <si>
+    <t>oneHunt</t>
+  </si>
+  <si>
+    <t>trickyClassic</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -141,16 +196,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6062,11 +6213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130169104"/>
-        <c:axId val="-2130165296"/>
+        <c:axId val="2109540736"/>
+        <c:axId val="2109544320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130169104"/>
+        <c:axId val="2109540736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6124,12 +6275,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130165296"/>
+        <c:crossAx val="2109544320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130165296"/>
+        <c:axId val="2109544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -6188,7 +6339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130169104"/>
+        <c:crossAx val="2109540736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -6569,11 +6720,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2131070400"/>
-        <c:axId val="-2131067136"/>
+        <c:axId val="2110682944"/>
+        <c:axId val="2110686208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131070400"/>
+        <c:axId val="2110682944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,7 +6767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131067136"/>
+        <c:crossAx val="2110686208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6624,7 +6775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131067136"/>
+        <c:axId val="2110686208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131070400"/>
+        <c:crossAx val="2110682944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6673,6 +6824,718 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fantasmas comidos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por Agente y Mapa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$2:$K$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>236.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$2:$K$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>460.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1211.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$2:$K$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1535.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1626.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1741.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>678.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$2:$K$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1907.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>561.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2533.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3862.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1094.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2123088720"/>
+        <c:axId val="-2125405840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2123088720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125405840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125405840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2123088720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6753,6 +7616,46 @@
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7774,6 +8677,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7839,16 +9245,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="classclassic2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="clustclassic2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="classclassic2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="clustclassic" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="classclassic" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7856,7 +9297,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="classclassic" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="clustclassic" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8124,8 +9565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8148,23 +9589,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="R4" t="s">
@@ -26933,7 +28374,7 @@
       </c>
     </row>
     <row r="636" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B636" s="2">
+      <c r="B636" s="1">
         <v>1</v>
       </c>
       <c r="C636">
@@ -33838,4 +35279,1083 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(D10:D14)</f>
+        <v>236.6</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(D16:D20)</f>
+        <v>21.4</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(D22:D26)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(I10:I14)</f>
+        <v>277.2</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(I16:I20)</f>
+        <v>27.5</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(I22:I26)</f>
+        <v>12.6</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(N10:N14)</f>
+        <v>589</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(N16:N20)</f>
+        <v>50.2</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(N22:N26)</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(E10:E14)</f>
+        <v>460.2</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(E16:E20)</f>
+        <v>90.8</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(E22:E26)</f>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(J10:J14)</f>
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(J16:J20)</f>
+        <v>69.5</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(J22:J26)</f>
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(O10:O14)</f>
+        <v>1207</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(O16:O20)</f>
+        <v>248.4</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(O22:O26)</f>
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(F10:F14)</f>
+        <v>1535</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(F16:F20)</f>
+        <v>203.8</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(F22:F26)</f>
+        <v>22.2</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(K10:K14)</f>
+        <v>1626.4</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(K16:K20)</f>
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(K22:K26)</f>
+        <v>16.2</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(P10:P14)</f>
+        <v>1741</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(P16:P20)</f>
+        <v>678.8</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(P22:P26)</f>
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(G10:G14)</f>
+        <v>1907.4</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(G16:G20)</f>
+        <v>561.6</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(G22:G26)</f>
+        <v>34.6</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(L10:L14)</f>
+        <v>2533.8000000000002</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(L16:L20)</f>
+        <v>183</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(L22:L26)</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(Q10:Q14)</f>
+        <v>3862</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(Q16:Q20)</f>
+        <v>1094.2</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(Q22:Q26)</f>
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>224</v>
+      </c>
+      <c r="F10" s="7">
+        <v>982</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1219</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40</v>
+      </c>
+      <c r="J10" s="7">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7">
+        <v>130</v>
+      </c>
+      <c r="L10" s="8">
+        <v>626</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="12">
+        <v>589</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1207</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1741</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7">
+        <v>499</v>
+      </c>
+      <c r="E11" s="7">
+        <v>551</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1732</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2609</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="12">
+        <v>303</v>
+      </c>
+      <c r="J11" s="12">
+        <v>851</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1052</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3900</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
+        <v>214</v>
+      </c>
+      <c r="E12" s="7">
+        <v>276</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3135</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3527</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7">
+        <v>41</v>
+      </c>
+      <c r="L12" s="8">
+        <v>627</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="12">
+        <v>439</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1210</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1421</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1671</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="12">
+        <v>965</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2933</v>
+      </c>
+      <c r="K13" s="12">
+        <v>3109</v>
+      </c>
+      <c r="L13" s="8">
+        <v>3574</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+      <c r="D14" s="12">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12">
+        <v>405</v>
+      </c>
+      <c r="G14" s="12">
+        <v>511</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="12">
+        <v>67</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2220</v>
+      </c>
+      <c r="K14" s="12">
+        <v>3800</v>
+      </c>
+      <c r="L14" s="8">
+        <v>3942</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10</v>
+      </c>
+      <c r="F16" s="12">
+        <v>30</v>
+      </c>
+      <c r="G16" s="12">
+        <v>256</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26</v>
+      </c>
+      <c r="J16" s="7">
+        <v>50</v>
+      </c>
+      <c r="K16" s="7">
+        <v>56</v>
+      </c>
+      <c r="L16" s="8">
+        <v>190</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="7">
+        <v>40</v>
+      </c>
+      <c r="O16" s="7">
+        <v>503</v>
+      </c>
+      <c r="P16" s="7">
+        <v>633</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="12">
+        <v>41</v>
+      </c>
+      <c r="E17" s="12">
+        <v>186</v>
+      </c>
+      <c r="F17" s="12">
+        <v>398</v>
+      </c>
+      <c r="G17" s="12">
+        <v>837</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>53</v>
+      </c>
+      <c r="O17" s="7">
+        <v>335</v>
+      </c>
+      <c r="P17" s="7">
+        <v>933</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+      <c r="D18" s="12">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12">
+        <v>36</v>
+      </c>
+      <c r="G18" s="12">
+        <v>500</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7">
+        <v>29</v>
+      </c>
+      <c r="J18" s="7">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7">
+        <v>134</v>
+      </c>
+      <c r="L18" s="8">
+        <v>176</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>30</v>
+      </c>
+      <c r="O18" s="7">
+        <v>146</v>
+      </c>
+      <c r="P18" s="7">
+        <v>235</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="6"/>
+      <c r="D19" s="12">
+        <v>49</v>
+      </c>
+      <c r="E19" s="12">
+        <v>71</v>
+      </c>
+      <c r="F19" s="12">
+        <v>363</v>
+      </c>
+      <c r="G19" s="12">
+        <v>409</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="12">
+        <v>72</v>
+      </c>
+      <c r="O19" s="12">
+        <v>105</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1011</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
+      <c r="D20" s="12">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12">
+        <v>178</v>
+      </c>
+      <c r="F20" s="12">
+        <v>192</v>
+      </c>
+      <c r="G20" s="12">
+        <v>806</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="12">
+        <v>56</v>
+      </c>
+      <c r="O20" s="12">
+        <v>153</v>
+      </c>
+      <c r="P20" s="12">
+        <v>582</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>24</v>
+      </c>
+      <c r="G22" s="12">
+        <v>39</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="7">
+        <v>16</v>
+      </c>
+      <c r="J22" s="7">
+        <v>19</v>
+      </c>
+      <c r="K22" s="7">
+        <v>19</v>
+      </c>
+      <c r="L22" s="8">
+        <v>20</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="12">
+        <v>15</v>
+      </c>
+      <c r="O22" s="12">
+        <v>27</v>
+      </c>
+      <c r="P22" s="12">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
+        <v>21</v>
+      </c>
+      <c r="G23" s="12">
+        <v>47</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7">
+        <v>9</v>
+      </c>
+      <c r="J23" s="7">
+        <v>12</v>
+      </c>
+      <c r="K23" s="7">
+        <v>14</v>
+      </c>
+      <c r="L23" s="8">
+        <v>17</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="12">
+        <v>22</v>
+      </c>
+      <c r="O23" s="12">
+        <v>28</v>
+      </c>
+      <c r="P23" s="12">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7">
+        <v>24</v>
+      </c>
+      <c r="G24" s="12">
+        <v>31</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7">
+        <v>14</v>
+      </c>
+      <c r="K24" s="7">
+        <v>14</v>
+      </c>
+      <c r="L24" s="8">
+        <v>17</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="12">
+        <v>18</v>
+      </c>
+      <c r="O24" s="12">
+        <v>28</v>
+      </c>
+      <c r="P24" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
+      <c r="D25" s="12">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12">
+        <v>16</v>
+      </c>
+      <c r="F25" s="12">
+        <v>22</v>
+      </c>
+      <c r="G25" s="12">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7">
+        <v>11</v>
+      </c>
+      <c r="J25" s="7">
+        <v>15</v>
+      </c>
+      <c r="K25" s="7">
+        <v>17</v>
+      </c>
+      <c r="L25" s="8">
+        <v>21</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="12">
+        <v>17</v>
+      </c>
+      <c r="O25" s="12">
+        <v>27</v>
+      </c>
+      <c r="P25" s="12">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10">
+        <v>4</v>
+      </c>
+      <c r="E26" s="10">
+        <v>16</v>
+      </c>
+      <c r="F26" s="10">
+        <v>20</v>
+      </c>
+      <c r="G26" s="10">
+        <v>22</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10">
+        <v>15</v>
+      </c>
+      <c r="J26" s="10">
+        <v>15</v>
+      </c>
+      <c r="K26" s="10">
+        <v>17</v>
+      </c>
+      <c r="L26" s="11">
+        <v>18</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10">
+        <v>20</v>
+      </c>
+      <c r="O26" s="10">
+        <v>33</v>
+      </c>
+      <c r="P26" s="10">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>STDEV(D10:D14)</f>
+        <v>228.2614728770495</v>
+      </c>
+      <c r="D29">
+        <f>STDEV(D16:D20)</f>
+        <v>21.824298385056963</v>
+      </c>
+      <c r="E29">
+        <f>STDEV(D22:D26)</f>
+        <v>1.8165902124584952</v>
+      </c>
+      <c r="F29">
+        <f>STDEV(I10:I14)</f>
+        <v>401.57340549393956</v>
+      </c>
+      <c r="G29">
+        <f>STDEV(I16:I20)</f>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="H29">
+        <f>STDEV(I22:I26)</f>
+        <v>2.8809720581775888</v>
+      </c>
+      <c r="I29" t="e">
+        <f>STDEV(N10:N14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29">
+        <f>STDEV(N16:N20)</f>
+        <v>16.037456157383559</v>
+      </c>
+      <c r="K29">
+        <f>STDEV(N22:N26)</f>
+        <v>2.7018512172212614</v>
+      </c>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>STDEV(E10:E14)</f>
+        <v>457.36549935472834</v>
+      </c>
+      <c r="D30">
+        <f>STDEV(E16:E20)</f>
+        <v>87.00402289549605</v>
+      </c>
+      <c r="E30">
+        <f>STDEV(E22:E26)</f>
+        <v>3.3911649915626341</v>
+      </c>
+      <c r="F30">
+        <f>STDEV(J10:J14)</f>
+        <v>1315.2495200531343</v>
+      </c>
+      <c r="G30">
+        <f>STDEV(J16:J20)</f>
+        <v>27.577164466275352</v>
+      </c>
+      <c r="H30">
+        <f>STDEV(J22:J26)</f>
+        <v>2.5495097567963922</v>
+      </c>
+      <c r="I30" t="e">
+        <f>STDEV(O10:O14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30">
+        <f>STDEV(O16:O20)</f>
+        <v>167.6836306858842</v>
+      </c>
+      <c r="K30">
+        <f>STDEV(O22:O26)</f>
+        <v>2.5099800796022267</v>
+      </c>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f>STDEV(F10:F14)</f>
+        <v>1024.0256344447632</v>
+      </c>
+      <c r="D31">
+        <f>STDEV(F16:F20)</f>
+        <v>174.32785204894827</v>
+      </c>
+      <c r="E31">
+        <f>STDEV(F22:F26)</f>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="F31">
+        <f>STDEV(K10:K14)</f>
+        <v>1732.4319034236237</v>
+      </c>
+      <c r="G31">
+        <f>STDEV(K16:K20)</f>
+        <v>55.154328932550705</v>
+      </c>
+      <c r="H31">
+        <f>STDEV(K22:K26)</f>
+        <v>2.1679483388678773</v>
+      </c>
+      <c r="I31" t="e">
+        <f>STDEV(P10:P14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31">
+        <f>STDEV(P16:P20)</f>
+        <v>309.59683460914124</v>
+      </c>
+      <c r="K31">
+        <f>STDEV(P22:P26)</f>
+        <v>6.0249481325568421</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f>STDEV(G10:G14)</f>
+        <v>1182.6938741703195</v>
+      </c>
+      <c r="D32">
+        <f>STDEV(G16:G20)</f>
+        <v>253.00652165507512</v>
+      </c>
+      <c r="E32">
+        <f>STDEV(G22:G26)</f>
+        <v>9.2897793299948717</v>
+      </c>
+      <c r="F32">
+        <f>STDEV(L10:L14)</f>
+        <v>1746.9353737330985</v>
+      </c>
+      <c r="G32">
+        <f>STDEV(L16:L20)</f>
+        <v>9.8994949366116654</v>
+      </c>
+      <c r="H32">
+        <f>STDEV(L22:L26)</f>
+        <v>1.8165902124584952</v>
+      </c>
+      <c r="I32" t="e">
+        <f>STDEV(Q10:Q14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32">
+        <f>STDEV(Q16:Q20)</f>
+        <v>585.45255999098674</v>
+      </c>
+      <c r="K32">
+        <f>STDEV(Q22:Q26)</f>
+        <v>11.610340218960001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/P2/data/rendimiento.xlsx
+++ b/P2/data/rendimiento.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>classclassic</t>
   </si>
@@ -113,37 +113,7 @@
     <t>Segundos</t>
   </si>
   <si>
-    <t>P1/blank</t>
-  </si>
-  <si>
-    <t>P2/blank</t>
-  </si>
-  <si>
-    <t>kb/blank</t>
-  </si>
-  <si>
-    <t>P1/classic</t>
-  </si>
-  <si>
-    <t>P2/classic</t>
-  </si>
-  <si>
-    <t>kb/classic</t>
-  </si>
-  <si>
-    <t>P1/sixHunt</t>
-  </si>
-  <si>
-    <t>P2/sixHunt</t>
-  </si>
-  <si>
-    <t>kb/sixHunt</t>
-  </si>
-  <si>
     <t>kb</t>
-  </si>
-  <si>
-    <t>classic</t>
   </si>
   <si>
     <t>p1</t>
@@ -6882,7 +6852,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6895,13 +6865,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fantasmas comidos</a:t>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Turnos que tarda cada agente en comer fantasmas</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> por Agente y Mapa</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6919,7 +6886,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7030,7 +6997,7 @@
                   <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277.2</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27.5</c:v>
@@ -7139,7 +7106,7 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211.4</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69.5</c:v>
@@ -7248,7 +7215,7 @@
                   <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1626.4</c:v>
+                  <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95.0</c:v>
@@ -7357,7 +7324,7 @@
                   <c:v>34.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2533.8</c:v>
+                  <c:v>626.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>183.0</c:v>
@@ -7419,7 +7386,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7477,7 +7444,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7520,7 +7487,720 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Desviación estándar acumulada por</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> agente y mapa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$30:$K$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>228.2614728770495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.82429838505696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.816590212458495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.50609665440988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.121320343559642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.880972058177589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.03745615738356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.701851217221261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$30:$K$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>457.3654993547283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.00402289549605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.391164991562634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.92031021678297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.57716446627535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.549509756796392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.6836306858842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.509980079602227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$30:$K$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$34:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024.025634444763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.3278520489483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.788854381999832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.93250352560273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.1543289325507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.167948338867877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309.5968346091412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.024948132556842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$C$30:$K$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Práctica 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Práctica 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Teclado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>oneHunt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>trickyClassic</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sixHunt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$35:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1182.69387417032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253.0065216550751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.289779329994872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.707106781186548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.899494936611665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.816590212458495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>585.4525599909867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.61034021896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2121573200"/>
+        <c:axId val="-2121597600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2121573200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121597600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121597600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121573200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7620,6 +8300,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9180,6 +9900,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9272,6 +10497,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35283,34 +36538,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q32"/>
+  <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -35358,7 +36613,7 @@
       </c>
       <c r="F4">
         <f>AVERAGE(I10:I14)</f>
-        <v>277.2</v>
+        <v>25.5</v>
       </c>
       <c r="G4">
         <f>AVERAGE(I16:I20)</f>
@@ -35399,7 +36654,7 @@
       </c>
       <c r="F5">
         <f>AVERAGE(J10:J14)</f>
-        <v>1211.4000000000001</v>
+        <v>26.5</v>
       </c>
       <c r="G5">
         <f>AVERAGE(J16:J20)</f>
@@ -35440,7 +36695,7 @@
       </c>
       <c r="F6">
         <f>AVERAGE(K10:K14)</f>
-        <v>1626.4</v>
+        <v>85.5</v>
       </c>
       <c r="G6">
         <f>AVERAGE(K16:K20)</f>
@@ -35481,7 +36736,7 @@
       </c>
       <c r="F7">
         <f>AVERAGE(L10:L14)</f>
-        <v>2533.8000000000002</v>
+        <v>626.5</v>
       </c>
       <c r="G7">
         <f>AVERAGE(L16:L20)</f>
@@ -35507,21 +36762,21 @@
     <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -35530,7 +36785,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -35545,7 +36800,7 @@
         <v>1219</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
         <v>40</v>
@@ -35560,7 +36815,7 @@
         <v>626</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N10" s="12">
         <v>589</v>
@@ -35590,18 +36845,10 @@
         <v>2609</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="12">
-        <v>303</v>
-      </c>
-      <c r="J11" s="12">
-        <v>851</v>
-      </c>
-      <c r="K11" s="12">
-        <v>1052</v>
-      </c>
-      <c r="L11" s="8">
-        <v>3900</v>
-      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -35656,18 +36903,10 @@
         <v>1671</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="12">
-        <v>965</v>
-      </c>
-      <c r="J13" s="12">
-        <v>2933</v>
-      </c>
-      <c r="K13" s="12">
-        <v>3109</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3574</v>
-      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -35689,18 +36928,10 @@
         <v>511</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="12">
-        <v>67</v>
-      </c>
-      <c r="J14" s="12">
-        <v>2220</v>
-      </c>
-      <c r="K14" s="12">
-        <v>3800</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3942</v>
-      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -35726,7 +36957,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16" s="12">
         <v>4</v>
@@ -35741,7 +36972,7 @@
         <v>256</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
         <v>26</v>
@@ -35756,7 +36987,7 @@
         <v>190</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
         <v>40</v>
@@ -35930,7 +37161,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
         <v>7</v>
@@ -35945,7 +37176,7 @@
         <v>39</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
         <v>16</v>
@@ -35960,7 +37191,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N22" s="12">
         <v>15</v>
@@ -36147,207 +37378,231 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <f>STDEV(D10:D14)</f>
         <v>228.2614728770495</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <f>STDEV(D16:D20)</f>
         <v>21.824298385056963</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <f>STDEV(D22:D26)</f>
         <v>1.8165902124584952</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <f>STDEV(I10:I14)</f>
-        <v>401.57340549393956</v>
-      </c>
-      <c r="G29">
+        <v>20.506096654409877</v>
+      </c>
+      <c r="G32">
         <f>STDEV(I16:I20)</f>
         <v>2.1213203435596424</v>
       </c>
-      <c r="H29">
+      <c r="H32">
         <f>STDEV(I22:I26)</f>
         <v>2.8809720581775888</v>
       </c>
-      <c r="I29" t="e">
+      <c r="I32" t="e">
         <f>STDEV(N10:N14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29">
+      <c r="J32">
         <f>STDEV(N16:N20)</f>
         <v>16.037456157383559</v>
       </c>
-      <c r="K29">
+      <c r="K32">
         <f>STDEV(N22:N26)</f>
         <v>2.7018512172212614</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <f>STDEV(E10:E14)</f>
         <v>457.36549935472834</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <f>STDEV(E16:E20)</f>
         <v>87.00402289549605</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <f>STDEV(E22:E26)</f>
         <v>3.3911649915626341</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <f>STDEV(J10:J14)</f>
-        <v>1315.2495200531343</v>
-      </c>
-      <c r="G30">
+        <v>21.920310216782973</v>
+      </c>
+      <c r="G33">
         <f>STDEV(J16:J20)</f>
         <v>27.577164466275352</v>
       </c>
-      <c r="H30">
+      <c r="H33">
         <f>STDEV(J22:J26)</f>
         <v>2.5495097567963922</v>
       </c>
-      <c r="I30" t="e">
+      <c r="I33" t="e">
         <f>STDEV(O10:O14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30">
+      <c r="J33">
         <f>STDEV(O16:O20)</f>
         <v>167.6836306858842</v>
       </c>
-      <c r="K30">
+      <c r="K33">
         <f>STDEV(O22:O26)</f>
         <v>2.5099800796022267</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <f>STDEV(F10:F14)</f>
         <v>1024.0256344447632</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <f>STDEV(F16:F20)</f>
         <v>174.32785204894827</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <f>STDEV(F22:F26)</f>
         <v>1.7888543819998317</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <f>STDEV(K10:K14)</f>
-        <v>1732.4319034236237</v>
-      </c>
-      <c r="G31">
+        <v>62.932503525602726</v>
+      </c>
+      <c r="G34">
         <f>STDEV(K16:K20)</f>
         <v>55.154328932550705</v>
       </c>
-      <c r="H31">
+      <c r="H34">
         <f>STDEV(K22:K26)</f>
         <v>2.1679483388678773</v>
       </c>
-      <c r="I31" t="e">
+      <c r="I34" t="e">
         <f>STDEV(P10:P14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31">
+      <c r="J34">
         <f>STDEV(P16:P20)</f>
         <v>309.59683460914124</v>
       </c>
-      <c r="K31">
+      <c r="K34">
         <f>STDEV(P22:P26)</f>
         <v>6.0249481325568421</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
         <f>STDEV(G10:G14)</f>
         <v>1182.6938741703195</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <f>STDEV(G16:G20)</f>
         <v>253.00652165507512</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <f>STDEV(G22:G26)</f>
         <v>9.2897793299948717</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <f>STDEV(L10:L14)</f>
-        <v>1746.9353737330985</v>
-      </c>
-      <c r="G32">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="G35">
         <f>STDEV(L16:L20)</f>
         <v>9.8994949366116654</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <f>STDEV(L22:L26)</f>
         <v>1.8165902124584952</v>
       </c>
-      <c r="I32" t="e">
+      <c r="I35" t="e">
         <f>STDEV(Q10:Q14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32">
+      <c r="J35">
         <f>STDEV(Q16:Q20)</f>
         <v>585.45255999098674</v>
       </c>
-      <c r="K32">
+      <c r="K35">
         <f>STDEV(Q22:Q26)</f>
         <v>11.610340218960001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="M9:Q9"/>

--- a/P2/data/rendimiento.xlsx
+++ b/P2/data/rendimiento.xlsx
@@ -6997,7 +6997,7 @@
                   <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.5</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27.5</c:v>
@@ -7006,7 +7006,7 @@
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>589.0</c:v>
+                  <c:v>1833.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>50.2</c:v>
@@ -7106,7 +7106,7 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5</c:v>
+                  <c:v>51.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69.5</c:v>
@@ -7115,7 +7115,7 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1207.0</c:v>
+                  <c:v>2424.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>248.4</c:v>
@@ -7215,7 +7215,7 @@
                   <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.5</c:v>
+                  <c:v>198.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95.0</c:v>
@@ -7224,7 +7224,7 @@
                   <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1741.0</c:v>
+                  <c:v>3505.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>678.8</c:v>
@@ -7324,7 +7324,7 @@
                   <c:v>34.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>626.5</c:v>
+                  <c:v>977.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>183.0</c:v>
@@ -7333,7 +7333,7 @@
                   <c:v>18.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3862.0</c:v>
+                  <c:v>5196.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1094.2</c:v>
@@ -7709,7 +7709,7 @@
                   <c:v>1.816590212458495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.50609665440988</c:v>
+                  <c:v>15.89549202342182</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.121320343559642</c:v>
@@ -7718,7 +7718,7 @@
                   <c:v>2.880972058177589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1673.576559348272</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.03745615738356</c:v>
@@ -7818,7 +7818,7 @@
                   <c:v>3.391164991562634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.92031021678297</c:v>
+                  <c:v>31.95178659584885</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27.57716446627535</c:v>
@@ -7827,7 +7827,7 @@
                   <c:v>2.549509756796392</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1836.130986612883</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>167.6836306858842</c:v>
@@ -7927,7 +7927,7 @@
                   <c:v>1.788854381999832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.93250352560273</c:v>
+                  <c:v>153.5694739631979</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55.1543289325507</c:v>
@@ -7936,7 +7936,7 @@
                   <c:v>2.167948338867877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>2078.904350854074</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>309.5968346091412</c:v>
@@ -8036,7 +8036,7 @@
                   <c:v>9.289779329994872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.707106781186548</c:v>
+                  <c:v>949.6509446458033</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.899494936611665</c:v>
@@ -8045,7 +8045,7 @@
                   <c:v>1.816590212458495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1195.585337815748</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>585.4525599909867</c:v>
@@ -36540,8 +36540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36613,7 +36613,7 @@
       </c>
       <c r="F4">
         <f>AVERAGE(I10:I14)</f>
-        <v>25.5</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <f>AVERAGE(I16:I20)</f>
@@ -36625,7 +36625,7 @@
       </c>
       <c r="I4">
         <f>AVERAGE(N10:N14)</f>
-        <v>589</v>
+        <v>1833</v>
       </c>
       <c r="J4">
         <f>AVERAGE(N16:N20)</f>
@@ -36654,7 +36654,7 @@
       </c>
       <c r="F5">
         <f>AVERAGE(J10:J14)</f>
-        <v>26.5</v>
+        <v>51.75</v>
       </c>
       <c r="G5">
         <f>AVERAGE(J16:J20)</f>
@@ -36666,7 +36666,7 @@
       </c>
       <c r="I5">
         <f>AVERAGE(O10:O14)</f>
-        <v>1207</v>
+        <v>2424</v>
       </c>
       <c r="J5">
         <f>AVERAGE(O16:O20)</f>
@@ -36695,7 +36695,7 @@
       </c>
       <c r="F6">
         <f>AVERAGE(K10:K14)</f>
-        <v>85.5</v>
+        <v>198.75</v>
       </c>
       <c r="G6">
         <f>AVERAGE(K16:K20)</f>
@@ -36707,7 +36707,7 @@
       </c>
       <c r="I6">
         <f>AVERAGE(P10:P14)</f>
-        <v>1741</v>
+        <v>3505.6</v>
       </c>
       <c r="J6">
         <f>AVERAGE(P16:P20)</f>
@@ -36736,7 +36736,7 @@
       </c>
       <c r="F7">
         <f>AVERAGE(L10:L14)</f>
-        <v>626.5</v>
+        <v>977.25</v>
       </c>
       <c r="G7">
         <f>AVERAGE(L16:L20)</f>
@@ -36748,7 +36748,7 @@
       </c>
       <c r="I7">
         <f>AVERAGE(Q10:Q14)</f>
-        <v>3862</v>
+        <v>5196.6000000000004</v>
       </c>
       <c r="J7">
         <f>AVERAGE(Q16:Q20)</f>
@@ -36845,15 +36845,31 @@
         <v>2609</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="8"/>
+      <c r="I11" s="12">
+        <v>18</v>
+      </c>
+      <c r="J11" s="12">
+        <v>81</v>
+      </c>
+      <c r="K11" s="12">
+        <v>400</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2380</v>
+      </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
+      <c r="N11" s="7">
+        <v>363</v>
+      </c>
+      <c r="O11" s="7">
+        <v>909</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1350</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4631</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
@@ -36883,10 +36899,18 @@
         <v>627</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8"/>
+      <c r="N12" s="12">
+        <v>2350</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2867</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3576</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>4785</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
@@ -36903,15 +36927,31 @@
         <v>1671</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="8"/>
+      <c r="I13" s="12">
+        <v>43</v>
+      </c>
+      <c r="J13" s="12">
+        <v>73</v>
+      </c>
+      <c r="K13" s="12">
+        <v>224</v>
+      </c>
+      <c r="L13" s="8">
+        <v>276</v>
+      </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
+      <c r="N13" s="12">
+        <v>4483</v>
+      </c>
+      <c r="O13" s="12">
+        <v>5425</v>
+      </c>
+      <c r="P13" s="12">
+        <v>6458</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>6975</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C14" s="6"/>
@@ -36933,10 +36973,18 @@
       <c r="K14" s="12"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
+      <c r="N14" s="12">
+        <v>1380</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1712</v>
+      </c>
+      <c r="P14" s="12">
+        <v>4403</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>5730</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C15" s="6"/>
@@ -37452,7 +37500,7 @@
       </c>
       <c r="F32">
         <f>STDEV(I10:I14)</f>
-        <v>20.506096654409877</v>
+        <v>15.895492023421818</v>
       </c>
       <c r="G32">
         <f>STDEV(I16:I20)</f>
@@ -37462,9 +37510,9 @@
         <f>STDEV(I22:I26)</f>
         <v>2.8809720581775888</v>
       </c>
-      <c r="I32" t="e">
+      <c r="I32">
         <f>STDEV(N10:N14)</f>
-        <v>#DIV/0!</v>
+        <v>1673.576559348272</v>
       </c>
       <c r="J32">
         <f>STDEV(N16:N20)</f>
@@ -37493,7 +37541,7 @@
       </c>
       <c r="F33">
         <f>STDEV(J10:J14)</f>
-        <v>21.920310216782973</v>
+        <v>31.951786595848855</v>
       </c>
       <c r="G33">
         <f>STDEV(J16:J20)</f>
@@ -37503,9 +37551,9 @@
         <f>STDEV(J22:J26)</f>
         <v>2.5495097567963922</v>
       </c>
-      <c r="I33" t="e">
+      <c r="I33">
         <f>STDEV(O10:O14)</f>
-        <v>#DIV/0!</v>
+        <v>1836.1309866128831</v>
       </c>
       <c r="J33">
         <f>STDEV(O16:O20)</f>
@@ -37534,7 +37582,7 @@
       </c>
       <c r="F34">
         <f>STDEV(K10:K14)</f>
-        <v>62.932503525602726</v>
+        <v>153.56947396319794</v>
       </c>
       <c r="G34">
         <f>STDEV(K16:K20)</f>
@@ -37544,9 +37592,9 @@
         <f>STDEV(K22:K26)</f>
         <v>2.1679483388678773</v>
       </c>
-      <c r="I34" t="e">
+      <c r="I34">
         <f>STDEV(P10:P14)</f>
-        <v>#DIV/0!</v>
+        <v>2078.9043508540744</v>
       </c>
       <c r="J34">
         <f>STDEV(P16:P20)</f>
@@ -37575,7 +37623,7 @@
       </c>
       <c r="F35">
         <f>STDEV(L10:L14)</f>
-        <v>0.70710678118654757</v>
+        <v>949.65094464580329</v>
       </c>
       <c r="G35">
         <f>STDEV(L16:L20)</f>
@@ -37585,9 +37633,9 @@
         <f>STDEV(L22:L26)</f>
         <v>1.8165902124584952</v>
       </c>
-      <c r="I35" t="e">
+      <c r="I35">
         <f>STDEV(Q10:Q14)</f>
-        <v>#DIV/0!</v>
+        <v>1195.5853378157483</v>
       </c>
       <c r="J35">
         <f>STDEV(Q16:Q20)</f>
